--- a/2020-2021/informatica/marzo/comuni/dataset/italy_provincies.xlsx
+++ b/2020-2021/informatica/marzo/comuni/dataset/italy_provincies.xlsx
@@ -60,7 +60,7 @@
     <t>AQ</t>
   </si>
   <si>
-    <t>L'Aquila</t>
+    <t>L Aquila</t>
   </si>
   <si>
     <t>AR</t>
@@ -676,7 +676,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -701,6 +701,10 @@
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
     </font>
     <font>
       <b/>
@@ -734,7 +738,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -746,7 +750,10 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -2803,7 +2810,7 @@
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3616,10 +3623,10 @@
       </c>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="5" t="s">
+      <c r="A109" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="B109" s="5"/>
+      <c r="B109" s="6"/>
     </row>
     <row r="110" ht="15.75" customHeight="1"/>
     <row r="111" ht="15.75" customHeight="1"/>
